--- a/RPS Basis Data.xlsx
+++ b/RPS Basis Data.xlsx
@@ -49,12 +49,6 @@
   </si>
   <si>
     <t>: Komputerisasi Akuntansi</t>
-  </si>
-  <si>
-    <t>Mata Kuliah / Kode</t>
-  </si>
-  <si>
-    <t>Jumlah SKS</t>
   </si>
   <si>
     <t>Dosen Pengampu</t>
@@ -203,9 +197,6 @@
     <t>: Osvari Arsalan,S.Kom., M.T</t>
   </si>
   <si>
-    <t>: 2</t>
-  </si>
-  <si>
     <t>: Basis Data</t>
   </si>
   <si>
@@ -384,6 +375,15 @@
   </si>
   <si>
     <t>2. W3Schools Online Web Tutorial http://w3schools.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mata Kuliah </t>
+  </si>
+  <si>
+    <t>: 2/FKA004117</t>
+  </si>
+  <si>
+    <t>Jumlah SKS/Kode MK</t>
   </si>
 </sst>
 </file>
@@ -560,46 +560,46 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -637,7 +637,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -964,95 +964,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:12" ht="15.75">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:12" ht="18.75">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:12" ht="18.75">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1">
       <c r="D8" s="1" t="s">
@@ -1076,30 +1076,30 @@
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="15.75">
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="15.75">
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="15.75">
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="15.75">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3"/>
       <c r="K16" s="2"/>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1">
       <c r="B17" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1137,28 +1137,28 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1">
-      <c r="B18" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="B18" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1">
-      <c r="B19" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="B19" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1201,42 +1201,42 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="B24" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:13" ht="15.75">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1248,33 +1248,33 @@
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
+      <c r="B28" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
       <c r="A29" s="7"/>
-      <c r="B29" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+      <c r="B29" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1287,406 +1287,406 @@
     </row>
     <row r="31" spans="1:13" ht="15.75">
       <c r="A31" s="7"/>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+    </row>
+    <row r="33" spans="1:9" ht="30">
+      <c r="A33" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="90">
+      <c r="A35" s="32">
+        <v>1</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-    </row>
-    <row r="33" spans="1:9" ht="30">
-      <c r="A33" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="9" t="s">
+      <c r="H35" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="105">
+      <c r="A36" s="32">
+        <v>2</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="G36" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="90">
-      <c r="A35" s="24">
-        <v>1</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="11" t="s">
+    <row r="37" spans="1:9" s="14" customFormat="1" ht="120">
+      <c r="A37" s="32">
+        <v>3</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="90">
+      <c r="A38" s="32">
+        <v>4</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="108.75" customHeight="1">
+      <c r="A39" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="105">
-      <c r="A36" s="24">
-        <v>2</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="14" customFormat="1" ht="120">
-      <c r="A37" s="24">
-        <v>3</v>
-      </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H37" s="11" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I37" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="90">
-      <c r="A38" s="24">
-        <v>4</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="11" t="s">
+      <c r="D39" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="11" t="s">
+      <c r="F39" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="108.75" customHeight="1">
-      <c r="A39" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="H39" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="45">
-      <c r="A40" s="24">
+      <c r="A40" s="32">
         <v>7</v>
       </c>
-      <c r="B40" s="24"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="105">
+      <c r="A41" s="32">
+        <v>8</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I40" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="105">
-      <c r="A41" s="24">
-        <v>8</v>
-      </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" s="11" t="s">
+      <c r="F41" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H41" s="11" t="s">
+      <c r="I41" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="90">
+      <c r="A42" s="32">
+        <v>9</v>
+      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I41" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="90">
-      <c r="A42" s="24">
-        <v>9</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="11" t="s">
+      <c r="H42" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="11" t="s">
+      <c r="I42" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="187.5" customHeight="1">
+      <c r="A43" s="32">
+        <v>10</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42" s="11" t="s">
+      <c r="D43" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="F43" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I42" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="187.5" customHeight="1">
-      <c r="A43" s="24">
-        <v>10</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="11" t="s">
+      <c r="H43" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="11" t="s">
+      <c r="I43" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="156.75" customHeight="1">
+      <c r="A44" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G43" s="11" t="s">
+      <c r="D44" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="F44" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I43" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="156.75" customHeight="1">
-      <c r="A44" s="25" t="s">
+      <c r="H44" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="155.25" customHeight="1">
+      <c r="A45" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="32"/>
+      <c r="C45" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="123" customHeight="1">
+      <c r="A46" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="155.25" customHeight="1">
-      <c r="A45" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" s="11" t="s">
+      <c r="B46" s="32"/>
+      <c r="C46" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" s="11" t="s">
+      <c r="D46" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="F46" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="I45" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="123" customHeight="1">
-      <c r="A46" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="11" t="s">
+      <c r="H46" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>102</v>
-      </c>
       <c r="I46" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="24">
+      <c r="A47" s="32">
         <v>16</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1713,7 +1713,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="B51" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="B52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
@@ -1771,13 +1771,13 @@
     </row>
     <row r="55" spans="1:12" ht="15.75">
       <c r="C55" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="19"/>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="56" spans="1:12" ht="15.75">
       <c r="C56" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1837,13 +1837,13 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="21"/>
@@ -1852,13 +1852,13 @@
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="21"/>
@@ -1911,6 +1911,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B26:I26"/>
@@ -1921,25 +1938,8 @@
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B24:I25"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RPS Basis Data.xlsx
+++ b/RPS Basis Data.xlsx
@@ -560,6 +560,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -569,9 +590,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,24 +600,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -637,7 +637,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -948,7 +948,7 @@
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -964,95 +964,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:12" ht="15.75">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:12" ht="18.75">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:12" ht="18.75">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1">
       <c r="D8" s="1" t="s">
@@ -1137,28 +1137,28 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -1201,38 +1201,38 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
     </row>
     <row r="27" spans="1:13" ht="15.75">
       <c r="A27" s="1" t="s">
@@ -1248,29 +1248,29 @@
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
       <c r="A29" s="7"/>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
@@ -1287,22 +1287,22 @@
     </row>
     <row r="31" spans="1:13" ht="15.75">
       <c r="A31" s="7"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="33" spans="1:9" ht="30">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="34"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
@@ -1326,10 +1326,10 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="35"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="9" t="s">
         <v>26</v>
       </c>
@@ -1353,10 +1353,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="90">
-      <c r="A35" s="32">
+      <c r="A35" s="24">
         <v>1</v>
       </c>
-      <c r="B35" s="32"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="11" t="s">
         <v>56</v>
       </c>
@@ -1380,10 +1380,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="105">
-      <c r="A36" s="32">
+      <c r="A36" s="24">
         <v>2</v>
       </c>
-      <c r="B36" s="32"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="11" t="s">
         <v>60</v>
       </c>
@@ -1407,10 +1407,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" s="14" customFormat="1" ht="120">
-      <c r="A37" s="32">
+      <c r="A37" s="24">
         <v>3</v>
       </c>
-      <c r="B37" s="32"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="11" t="s">
         <v>65</v>
       </c>
@@ -1434,10 +1434,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="90">
-      <c r="A38" s="32">
+      <c r="A38" s="24">
         <v>4</v>
       </c>
-      <c r="B38" s="32"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="11" t="s">
         <v>68</v>
       </c>
@@ -1461,10 +1461,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="108.75" customHeight="1">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="32"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="11" t="s">
         <v>70</v>
       </c>
@@ -1488,10 +1488,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="45">
-      <c r="A40" s="32">
+      <c r="A40" s="24">
         <v>7</v>
       </c>
-      <c r="B40" s="32"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13" t="s">
@@ -1509,10 +1509,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="105">
-      <c r="A41" s="32">
+      <c r="A41" s="24">
         <v>8</v>
       </c>
-      <c r="B41" s="32"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="11" t="s">
         <v>75</v>
       </c>
@@ -1536,10 +1536,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="90">
-      <c r="A42" s="32">
+      <c r="A42" s="24">
         <v>9</v>
       </c>
-      <c r="B42" s="32"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="11" t="s">
         <v>80</v>
       </c>
@@ -1563,10 +1563,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="187.5" customHeight="1">
-      <c r="A43" s="32">
+      <c r="A43" s="24">
         <v>10</v>
       </c>
-      <c r="B43" s="32"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="11" t="s">
         <v>84</v>
       </c>
@@ -1590,10 +1590,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="156.75" customHeight="1">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="32"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="11" t="s">
         <v>88</v>
       </c>
@@ -1617,10 +1617,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="155.25" customHeight="1">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="32"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="11" t="s">
         <v>92</v>
       </c>
@@ -1644,10 +1644,10 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="123" customHeight="1">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="32"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="11" t="s">
         <v>96</v>
       </c>
@@ -1671,10 +1671,10 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="32">
+      <c r="A47" s="24">
         <v>16</v>
       </c>
-      <c r="B47" s="32"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
@@ -1911,11 +1911,18 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B24:I25"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
@@ -1928,18 +1935,11 @@
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B24:I25"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
